--- a/target/test-classes/com/sysmatech/TestData/LoginData4.xlsx
+++ b/target/test-classes/com/sysmatech/TestData/LoginData4.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>SelectCompany</t>
   </si>
@@ -45,39 +50,18 @@
     <t>Rakesh11</t>
   </si>
   <si>
-    <t>Rakesh22</t>
-  </si>
-  <si>
     <t>us-9876</t>
   </si>
   <si>
-    <t>us-9877</t>
-  </si>
-  <si>
-    <t>RakeshModel</t>
-  </si>
-  <si>
-    <t>Rakeshasset</t>
-  </si>
-  <si>
     <t>…..</t>
   </si>
   <si>
-    <t>SF - Store</t>
-  </si>
-  <si>
     <t>AddTag</t>
   </si>
   <si>
     <t>Supplier</t>
   </si>
   <si>
-    <t>kanex</t>
-  </si>
-  <si>
-    <t>ASAN</t>
-  </si>
-  <si>
     <t>OrderNo</t>
   </si>
   <si>
@@ -88,16 +72,28 @@
   </si>
   <si>
     <t>Ready to Deploy</t>
+  </si>
+  <si>
+    <t>AutomationModel</t>
+  </si>
+  <si>
+    <t>AutomationAsset</t>
+  </si>
+  <si>
+    <t>AutomationSupplier</t>
+  </si>
+  <si>
+    <t>parola</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +152,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -202,7 +206,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,9 +238,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,6 +273,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -443,32 +449,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="19.42578125" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" customWidth="1"/>
     <col min="13" max="13" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -483,16 +490,16 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
@@ -504,30 +511,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>7865</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G2" s="4">
         <v>44945</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="3">
         <v>1234</v>
@@ -539,51 +546,10 @@
         <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3">
-        <v>7644</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4">
-        <v>44946</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3">
-        <v>2345</v>
-      </c>
-      <c r="J3" s="3">
-        <v>35000</v>
-      </c>
-      <c r="K3" s="3">
-        <v>6</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -593,24 +559,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
